--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="118">
   <si>
     <t>Estudiantes</t>
   </si>
@@ -155,16 +155,260 @@
   </si>
   <si>
     <t>DANIELA HERNÁNDEZ BRAVO</t>
+  </si>
+  <si>
+    <t>Juan Fernando Pérez del Corral</t>
+  </si>
+  <si>
+    <t>Valentina Laverde de la Rosa</t>
+  </si>
+  <si>
+    <t>Óscar de la Renta</t>
+  </si>
+  <si>
+    <t>Sara Teresa Sánchez del Pinar</t>
+  </si>
+  <si>
+    <t>Efraín de las Casas Mejía</t>
+  </si>
+  <si>
+    <t>Julieta Ponce de León</t>
+  </si>
+  <si>
+    <t>Martín Elías de los Ríos Acosta</t>
+  </si>
+  <si>
+    <t>Gabriela de la Pava de la Torre</t>
+  </si>
+  <si>
+    <t>Matías de Greiff Rincón</t>
+  </si>
+  <si>
+    <t>Manuela del Pino Hincapié</t>
+  </si>
+  <si>
+    <t>Sebastián del Campo Yepes</t>
+  </si>
+  <si>
+    <t>Sofía del Río Arango</t>
+  </si>
+  <si>
+    <t>Ana María de la Peña Posada</t>
+  </si>
+  <si>
+    <t>Mónica Patricia de Ávalos Mendoza</t>
+  </si>
+  <si>
+    <t>DANIELA GUZMÁN</t>
+  </si>
+  <si>
+    <t>DANIELA KATHERINNE SUARIQUE ÁVILA</t>
+  </si>
+  <si>
+    <t>DANIELLA PUERTO NAVIA</t>
+  </si>
+  <si>
+    <t>DENY MARCELA MUÑOZ LIZARAZO</t>
+  </si>
+  <si>
+    <t>DIANA CAROLINA LOPEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>DIANA CATALINA DIAZ BELTRAN</t>
+  </si>
+  <si>
+    <t>DIEGO ALEJANDRO FORERO PEÑA</t>
+  </si>
+  <si>
+    <t>ESTEWIL CARLOS QUESADA CALDERÍN</t>
+  </si>
+  <si>
+    <t>FABIAN ANDRES FINO ANDRADE</t>
+  </si>
+  <si>
+    <t>GABRIEL FELIPE HERRERA MORENO</t>
+  </si>
+  <si>
+    <t>GABRIEL MAURICIO NIETO BUSTOS</t>
+  </si>
+  <si>
+    <t>GLORIA PATRICIA MENDOZA ALVEAR</t>
+  </si>
+  <si>
+    <t>HUGO ANDRÉS CAMARGO VARGAS</t>
+  </si>
+  <si>
+    <t>INGRID ROCIO GUERRERO PENAGOS</t>
+  </si>
+  <si>
+    <t>IVÁN DAVID CORAL BURBANO</t>
+  </si>
+  <si>
+    <t>IVONNE JOULIETTE BARRERA LOPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JENNY FERNANDA SÁNCHEZ ARENAS</t>
+  </si>
+  <si>
+    <t>JENNY VIVIANA MONCALEANO PRECIADO</t>
+  </si>
+  <si>
+    <t>JORGE ESTEBAN REY BOTERO</t>
+  </si>
+  <si>
+    <t>JORGE MARIO OROZCO DUSSÁN</t>
+  </si>
+  <si>
+    <t>JOSE GUILLERMO MARIN ZUBIETA</t>
+  </si>
+  <si>
+    <t>JUAN CAMILO ORTEGA PEÑA</t>
+  </si>
+  <si>
+    <t>JUAN CAMILO JIMENEZ CORTES</t>
+  </si>
+  <si>
+    <t>JUAN ESTEBAN LANAO SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>JUAN FERNANDO BARJUCH MORENO</t>
+  </si>
+  <si>
+    <t>JUAN SEBASTIAN ROMERO ESCOBAR</t>
+  </si>
+  <si>
+    <t>JUAN SEBASTIAN TARQUINO ACOSTA</t>
+  </si>
+  <si>
+    <t>JUAN SEBASTIAN SANCHEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t>JULIÁN ROMERO MONTOYA</t>
+  </si>
+  <si>
+    <t>JULIAN LEONARDO SANCHEZ PRADA</t>
+  </si>
+  <si>
+    <t>JULIANA GAVIRIA GARCIA</t>
+  </si>
+  <si>
+    <t>JULY CATHERINE GONZALEZ SUAREZ</t>
+  </si>
+  <si>
+    <t>KAREN ELIANA HERNÁNDEZ PULIDO</t>
+  </si>
+  <si>
+    <t>LAURA DIAZ MEJIA</t>
+  </si>
+  <si>
+    <t>LAURA CAMILA PUERTO CASTRO</t>
+  </si>
+  <si>
+    <t>LAURA CATALINA VARON BUITRAGO</t>
+  </si>
+  <si>
+    <t>LAURA FERNANDA RODRÍGUEZ TORRES</t>
+  </si>
+  <si>
+    <t>LAURA NATALIA NOVOA GOMEZ</t>
+  </si>
+  <si>
+    <t>LAURA VIVIANA DEL RÍO AYERBE</t>
+  </si>
+  <si>
+    <t>LEONARDO ANDRÉS DUEÑAS ROJAS</t>
+  </si>
+  <si>
+    <t>LINA MARÍA ZÚÑIGA RAMÍREZ</t>
+  </si>
+  <si>
+    <t>LISETH TATIANA SIERRA VILLAMIL</t>
+  </si>
+  <si>
+    <t>LUISA FERNANDA GARCÍA FONNEGRA</t>
+  </si>
+  <si>
+    <t>MARCELA GARCIA RUEDA</t>
+  </si>
+  <si>
+    <t>MARIA ALEJANDRA BOLÍVAR GALEANO</t>
+  </si>
+  <si>
+    <t>MARIA ALEJANDRA HORTA OCHOA</t>
+  </si>
+  <si>
+    <t>MARÍA ANGÉLICA BELTRÁN CASTILLO</t>
+  </si>
+  <si>
+    <t>MARÍA CAMILA GUACAS JIMÉNEZ</t>
+  </si>
+  <si>
+    <t>MARIA CAMILA NIETO BUSTOS</t>
+  </si>
+  <si>
+    <t>MARIA JOSÉ GARCÍA MORA</t>
+  </si>
+  <si>
+    <t>MARIA MARGARITA PEREZ MORENO</t>
+  </si>
+  <si>
+    <t>MARIA NATALIA CERVANTES LUNA</t>
+  </si>
+  <si>
+    <t>MARIANA DEL PILAR SANTOS MILACHAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARIO FERNANDO GARZÓN MUÑOZ</t>
+  </si>
+  <si>
+    <t>MÓNICA ALEXANDRA CAMACHO AMAYA</t>
+  </si>
+  <si>
+    <t>El Poblado</t>
+  </si>
+  <si>
+    <t>Prado</t>
+  </si>
+  <si>
+    <t>Laureles</t>
+  </si>
+  <si>
+    <t>Belén</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>San Joaquín</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Ek_muktaextralight"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,8 +434,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,25 +725,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="43.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -530,595 +783,3809 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <f ca="1">RANDBETWEEN(2004, 2017)</f>
+        <v>2015</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <f ca="1">RANDBETWEEN(1, 5)</f>
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f ca="1">RANDBETWEEN(1, 5)</f>
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f ca="1">RANDBETWEEN(1, 5)</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5">
+        <f ca="1">RANDBETWEEN(1, 5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <f ca="1">RANDBETWEEN(2004, 2017)</f>
+        <v>2011</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:J69" ca="1" si="0">RANDBETWEEN(1, 5)</f>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M69" ca="1" si="1">RANDBETWEEN(1, 5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <f ca="1">RANDBETWEEN(2004, 2017)</f>
+        <v>2015</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <f ca="1">RANDBETWEEN(2004, 2017)</f>
+        <v>2010</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <f ca="1">RANDBETWEEN(2004, 2017)</f>
+        <v>2011</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f ca="1">RANDBETWEEN(2004, 2017)</f>
+        <v>2008</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F74" ca="1" si="2">RANDBETWEEN(2004, 2017)</f>
+        <v>2004</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="2"/>
+        <v>2006</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="2"/>
+        <v>2006</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17">
         <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
+        <v>2010</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20">
         <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="2"/>
+        <v>2004</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23">
         <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24">
         <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25">
         <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26">
         <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28">
         <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29">
         <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30">
         <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31">
         <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32">
         <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>17</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="G39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>17</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="G41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="2"/>
+        <v>2006</v>
+      </c>
+      <c r="G42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
       <c r="B45">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="G45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
       <c r="B46">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="G47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
       <c r="B49">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
       <c r="B50">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
       <c r="B51">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
       <c r="B52">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>12</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
       <c r="B53">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="G53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
       <c r="B54">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="G55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
       <c r="B56">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>13</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="2"/>
+        <v>2010</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
       <c r="B57">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>9</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="G57" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
       <c r="B58">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>13</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="G58" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M58">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
       <c r="B59">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>17</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="G59" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M59">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
       <c r="B60">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="G60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M60">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
       <c r="B61">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
       <c r="B62">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="2"/>
+        <v>2004</v>
+      </c>
+      <c r="G62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M62">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
       <c r="B63">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="2"/>
+        <v>2004</v>
+      </c>
+      <c r="G63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
       <c r="B64">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>12</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="2"/>
+        <v>2006</v>
+      </c>
+      <c r="G64" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13">
       <c r="B65">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
       <c r="B66">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="G66" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
       <c r="B67">
         <v>63</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="G67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
       <c r="B68">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="G68" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
       <c r="B69">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="G69" t="s">
+        <v>90</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13">
       <c r="B70">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>14</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="2"/>
+        <v>2004</v>
+      </c>
+      <c r="G70" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ref="H70:J104" ca="1" si="3">RANDBETWEEN(1, 5)</f>
+        <v>3</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ref="M70:M104" ca="1" si="4">RANDBETWEEN(1, 5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13">
       <c r="B71">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="G71" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M71">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13">
       <c r="B72">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="G72" t="s">
+        <v>93</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M72">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
       <c r="B73">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>16</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="G73" t="s">
+        <v>94</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M73">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
       <c r="B74">
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="G74" t="s">
+        <v>95</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13">
       <c r="B75">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ref="F75:F104" ca="1" si="5">RANDBETWEEN(2004, 2017)</f>
+        <v>2010</v>
+      </c>
+      <c r="G75" t="s">
+        <v>96</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13">
       <c r="B76">
         <v>72</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>13</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="5"/>
+        <v>2005</v>
+      </c>
+      <c r="G76" t="s">
+        <v>97</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13">
       <c r="B77">
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="5"/>
+        <v>2009</v>
+      </c>
+      <c r="G77" t="s">
+        <v>98</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13">
       <c r="B78">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>17</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="5"/>
+        <v>2006</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M78">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13">
       <c r="B79">
         <v>75</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>12</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="5"/>
+        <v>2004</v>
+      </c>
+      <c r="G79" t="s">
+        <v>75</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M79">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13">
       <c r="B80">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>12</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="5"/>
+        <v>2005</v>
+      </c>
+      <c r="G80" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M80">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13">
       <c r="B81">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>12</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="5"/>
+        <v>2010</v>
+      </c>
+      <c r="G81" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M81">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
       <c r="B82">
         <v>78</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="5"/>
+        <v>2005</v>
+      </c>
+      <c r="G82" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M82">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13">
       <c r="B83">
         <v>79</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="5"/>
+        <v>2009</v>
+      </c>
+      <c r="G83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M83">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13">
       <c r="B84">
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="5"/>
+        <v>2005</v>
+      </c>
+      <c r="G84" t="s">
+        <v>79</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M84">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13">
       <c r="B85">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>16</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="5"/>
+        <v>2014</v>
+      </c>
+      <c r="G85" t="s">
+        <v>80</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M85">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13">
       <c r="B86">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="5"/>
+        <v>2015</v>
+      </c>
+      <c r="G86" t="s">
+        <v>81</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13">
       <c r="B87">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>13</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="5"/>
+        <v>2004</v>
+      </c>
+      <c r="G87" t="s">
+        <v>82</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M87">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13">
       <c r="B88">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>13</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="G88" t="s">
+        <v>83</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M88">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13">
       <c r="B89">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="5"/>
+        <v>2017</v>
+      </c>
+      <c r="G89" t="s">
+        <v>84</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J89">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M89">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13">
       <c r="B90">
         <v>86</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>6</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="5"/>
+        <v>2009</v>
+      </c>
+      <c r="G90" t="s">
+        <v>99</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M90">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13">
       <c r="B91">
         <v>87</v>
       </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>17</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="5"/>
+        <v>2013</v>
+      </c>
+      <c r="G91" t="s">
+        <v>100</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M91">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13">
       <c r="B92">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>17</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="5"/>
+        <v>2017</v>
+      </c>
+      <c r="G92" t="s">
+        <v>101</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M92">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13">
       <c r="B93">
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>8</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="5"/>
+        <v>2007</v>
+      </c>
+      <c r="G93" t="s">
+        <v>102</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M93">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13">
       <c r="B94">
         <v>90</v>
       </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>6</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="G94" t="s">
+        <v>103</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M94">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13">
       <c r="B95">
         <v>91</v>
       </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="5"/>
+        <v>2010</v>
+      </c>
+      <c r="G95" t="s">
+        <v>104</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M95">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13">
       <c r="B96">
         <v>92</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>7</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="G96" t="s">
+        <v>105</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J96">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M96">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13">
       <c r="B97">
         <v>93</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>14</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="5"/>
+        <v>2012</v>
+      </c>
+      <c r="G97" t="s">
+        <v>106</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M97">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13">
       <c r="B98">
         <v>94</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="5"/>
+        <v>2011</v>
+      </c>
+      <c r="G98" t="s">
+        <v>107</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J98">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M98">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13">
       <c r="B99">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>7</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="5"/>
+        <v>2014</v>
+      </c>
+      <c r="G99" t="s">
+        <v>108</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M99">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13">
       <c r="B100">
         <v>96</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="5"/>
+        <v>2006</v>
+      </c>
+      <c r="G100" t="s">
+        <v>109</v>
+      </c>
+      <c r="H100">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M100">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13">
       <c r="B101">
         <v>97</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>16</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="5"/>
+        <v>2009</v>
+      </c>
+      <c r="G101" t="s">
+        <v>110</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J101">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M101">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13">
       <c r="B102">
         <v>98</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ca="1" si="5"/>
+        <v>2015</v>
+      </c>
+      <c r="G102" t="s">
+        <v>111</v>
+      </c>
+      <c r="H102">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J102">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M102">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13">
       <c r="B103">
         <v>99</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>5</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ca="1" si="5"/>
+        <v>2005</v>
+      </c>
+      <c r="G103" t="s">
+        <v>110</v>
+      </c>
+      <c r="H103">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I103">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J103">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M103">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13">
       <c r="B104">
         <v>100</v>
       </c>
+      <c r="C104" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104">
+        <f ca="1">RANDBETWEEN(5, 18)</f>
+        <v>7</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ca="1" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="G104" t="s">
+        <v>111</v>
+      </c>
+      <c r="H104">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I104">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M104">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1130,9 +4597,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1150,12 +4617,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
